--- a/Data_clean/MCAS/Estados_US/Edos_USA_2022/VERMONT_2022.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2022/VERMONT_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C3">
@@ -431,7 +431,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C5">
@@ -638,7 +638,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C19">
@@ -685,41 +685,6 @@
       </c>
       <c r="D22">
         <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 566,547</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Mayo de 2023</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2022/VERMONT_2022.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2022/VERMONT_2022.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>San Cristóbal De Las Casas</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Total</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Total</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Múgica</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -517,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -548,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Total</t>
@@ -579,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -610,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Altotonga</t>
@@ -623,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Huayacocotla</t>
@@ -636,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -649,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Soteapan</t>
@@ -662,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Total</t>
